--- a/biology/Médecine/Pandémie_de_Covid-19_aux_États_fédérés_de_Micronésie/Pandémie_de_Covid-19_aux_États_fédérés_de_Micronésie.xlsx
+++ b/biology/Médecine/Pandémie_de_Covid-19_aux_États_fédérés_de_Micronésie/Pandémie_de_Covid-19_aux_États_fédérés_de_Micronésie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_aux_%C3%89tats_f%C3%A9d%C3%A9r%C3%A9s_de_Micron%C3%A9sie</t>
+          <t>Pandémie_de_Covid-19_aux_États_fédérés_de_Micronésie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 atteint les États fédérés de Micronésie en janvier 2021, tandis que le pays était jusque lors l'un des derniers à ne pas connaître de cas sur son territoire.
 À la date du 21 septembre 2022, le bilan est de 29 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_aux_%C3%89tats_f%C3%A9d%C3%A9r%C3%A9s_de_Micron%C3%A9sie</t>
+          <t>Pandémie_de_Covid-19_aux_États_fédérés_de_Micronésie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Premières mesures</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lorsque la maladie s'étend à travers le monde, en mars 2020 les États fédérés de Micronésie ferment leurs frontières pour s'en préserver. Le gouvernement initie des mesures d'information de la population quant aux gestes sanitaires à suivre par précaution[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque la maladie s'étend à travers le monde, en mars 2020 les États fédérés de Micronésie ferment leurs frontières pour s'en préserver. Le gouvernement initie des mesures d'information de la population quant aux gestes sanitaires à suivre par précaution,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_aux_%C3%89tats_f%C3%A9d%C3%A9r%C3%A9s_de_Micron%C3%A9sie</t>
+          <t>Pandémie_de_Covid-19_aux_États_fédérés_de_Micronésie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Premier cas</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier cas détecté de Covid-19 sur son territoire est celui d'un membre d'équipage d'un navire du gouvernement, en janvier 2021. Il s'agit toutefois d'un cas dit "historique", la personne ayant contracté la maladie plusieurs mois auparavant et les symptômes ayant ensuite persisté[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier cas détecté de Covid-19 sur son territoire est celui d'un membre d'équipage d'un navire du gouvernement, en janvier 2021. Il s'agit toutefois d'un cas dit "historique", la personne ayant contracté la maladie plusieurs mois auparavant et les symptômes ayant ensuite persisté.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_aux_%C3%89tats_f%C3%A9d%C3%A9r%C3%A9s_de_Micron%C3%A9sie</t>
+          <t>Pandémie_de_Covid-19_aux_États_fédérés_de_Micronésie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Conséquences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pandémie conduit le gouvernement à déclarer l'état d'urgence, ce qui a notamment pour effet d'interrompre pendant 26 mois les travaux de l'assemblée constituante, élue en octobre 2019[5],[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pandémie conduit le gouvernement à déclarer l'état d'urgence, ce qui a notamment pour effet d'interrompre pendant 26 mois les travaux de l'assemblée constituante, élue en octobre 2019,.
 </t>
         </is>
       </c>
